--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/15/seed5/result_data_RandomForest.xlsx
@@ -485,13 +485,13 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.561</v>
+        <v>-12.51129999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.1382</v>
+        <v>16.3604</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.6058</v>
+        <v>-21.57660000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.4239</v>
+        <v>-13.5527</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.98209999999999</v>
+        <v>15.95419999999999</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.10390000000001</v>
+        <v>17.0813</v>
       </c>
     </row>
     <row r="26">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.0679</v>
+        <v>-11.7321</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.62189999999999</v>
+        <v>-21.80449999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.5026</v>
+        <v>15.64060000000001</v>
       </c>
     </row>
     <row r="31">
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.8043</v>
+        <v>-12.5651</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.21269999999998</v>
+        <v>-21.11699999999998</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.68630000000001</v>
+        <v>-13.08860000000002</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.85430000000001</v>
+        <v>-19.7436</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.45319999999999</v>
+        <v>-13.8469</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.4454</v>
+        <v>-19.2315</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.57049999999999</v>
+        <v>16.75199999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.8124</v>
+        <v>-13.7504</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.30809999999999</v>
+        <v>-21.3096</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.12730000000001</v>
+        <v>16.42989999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.7624</v>
+        <v>-10.8221</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.7564</v>
+        <v>-21.58099999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.48610000000001</v>
+        <v>-22.53220000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.30700000000001</v>
+        <v>-22.38780000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.58259999999999</v>
+        <v>-14.41869999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.59560000000001</v>
+        <v>16.6804</v>
       </c>
     </row>
     <row r="59">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.53569999999999</v>
+        <v>-21.55929999999999</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.67929999999999</v>
+        <v>-21.60259999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.51779999999998</v>
+        <v>-21.37549999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.63010000000002</v>
+        <v>16.63420000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.1863</v>
+        <v>-13.06140000000001</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8697</v>
+        <v>-21.88979999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.1766</v>
+        <v>-12.1764</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.6827</v>
+        <v>16.66500000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.23330000000001</v>
+        <v>-22.24580000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.30930000000002</v>
+        <v>17.43910000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.47300000000001</v>
+        <v>-21.46289999999999</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.87580000000002</v>
+        <v>17.90380000000002</v>
       </c>
     </row>
     <row r="92">
@@ -2004,12 +2004,12 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.97970000000002</v>
+        <v>17.95330000000002</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.29629999999999</v>
+        <v>-21.23599999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.08619999999998</v>
+        <v>16.04369999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.302</v>
+        <v>-20.07969999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.1696</v>
+        <v>-12.99709999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,13 +2168,13 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.3755</v>
+        <v>-12.302</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.606</v>
+        <v>16.47209999999999</v>
       </c>
     </row>
   </sheetData>
